--- a/PA Survey Results.xlsx
+++ b/PA Survey Results.xlsx
@@ -13,8 +13,186 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Olson</author>
+  </authors>
+  <commentList>
+    <comment ref="AR3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Still need a way to communicate with FW so PA can kick-off a FW project backup or restore. Then PA can include FW data sources in its backup file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not high enough priority to implement.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Exporting charts in HTML is so good now, having an RTF option is not necessary.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Possibly, but not high enough priority to implement in light of other needs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Possibly, but not high enough priority to implement in light of other needs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I have not had much call for this.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I have not had much call for this.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Don Cheney</t>
   </si>
@@ -170,13 +348,19 @@
   </si>
   <si>
     <t>Heidi Rosendall</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>almost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,6 +374,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -227,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -248,80 +445,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -330,10 +465,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="282828"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="EFEED3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -610,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -628,9 +763,10 @@
     <col min="39" max="40" width="3.28515625" customWidth="1"/>
     <col min="41" max="41" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="5.85546875" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="170.25" customHeight="1">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="170.25" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -755,8 +891,9 @@
       <c r="AQ1" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="AR1" s="11"/>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44">
       <c r="A2">
         <v>1</v>
       </c>
@@ -888,8 +1025,11 @@
         <f>RANK(AP2,AP2:AP12)</f>
         <v>1</v>
       </c>
+      <c r="AR2" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1020,8 +1160,11 @@
       <c r="AQ3" s="6">
         <v>5</v>
       </c>
+      <c r="AR3" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1153,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1285,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1417,7 +1560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1548,8 +1691,11 @@
       <c r="AQ7" s="6">
         <v>3</v>
       </c>
+      <c r="AR7" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1681,7 +1827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1813,7 +1959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1945,7 +2091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2076,8 +2222,11 @@
       <c r="AQ11" s="6">
         <v>6</v>
       </c>
+      <c r="AR11" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2209,10 +2358,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="AQ13" s="5"/>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:44">
       <c r="C14" s="5">
         <v>1</v>
       </c>
@@ -2373,5 +2522,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PA Survey Results.xlsx
+++ b/PA Survey Results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SIL\PhonologyAssistant\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="17115" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -19,7 +24,7 @@
     <author>Olson</author>
   </authors>
   <commentList>
-    <comment ref="AR3" authorId="0">
+    <comment ref="AS3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR7" authorId="0">
+    <comment ref="AS7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Don Cheney</t>
   </si>
@@ -354,13 +359,16 @@
   </si>
   <si>
     <t>almost</t>
+  </si>
+  <si>
+    <t>Todd Hoatson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -424,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -451,12 +459,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -503,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,9 +554,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,6 +589,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -760,13 +781,13 @@
     <col min="32" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.28515625" customWidth="1"/>
     <col min="38" max="38" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="3.28515625" customWidth="1"/>
-    <col min="41" max="41" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="5.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="10"/>
+    <col min="39" max="41" width="3.28515625" customWidth="1"/>
+    <col min="42" max="42" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="5.85546875" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="170.25" customHeight="1">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -885,15 +906,18 @@
       <c r="AO1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1017,19 +1041,22 @@
       <c r="AO2">
         <v>4</v>
       </c>
-      <c r="AP2" s="2">
-        <f t="shared" ref="AP2:AP12" si="0">SUM(C2:AO2)/29</f>
-        <v>5.5862068965517242</v>
-      </c>
-      <c r="AQ2" s="6">
-        <f>RANK(AP2,AP2:AP12)</f>
-        <v>1</v>
-      </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="2">
+        <f>SUM(C2:AP2)/29</f>
+        <v>5.6896551724137927</v>
+      </c>
+      <c r="AR2" s="6">
+        <f>RANK(AQ2,AQ2:AQ12)</f>
+        <v>1</v>
+      </c>
+      <c r="AS2" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1153,18 +1180,21 @@
       <c r="AO3">
         <v>4</v>
       </c>
-      <c r="AP3" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3448275862068968</v>
-      </c>
-      <c r="AQ3" s="6">
-        <v>5</v>
-      </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AP3">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="2">
+        <f>SUM(C3:AP3)/29</f>
+        <v>4.4137931034482758</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1288,15 +1318,18 @@
       <c r="AO4">
         <v>3</v>
       </c>
-      <c r="AP4" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4137931034482758</v>
-      </c>
-      <c r="AQ4" s="6">
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f>SUM(C4:AP4)/29</f>
+        <v>4.4482758620689653</v>
+      </c>
+      <c r="AR4" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1420,15 +1453,18 @@
       <c r="AO5">
         <v>5</v>
       </c>
-      <c r="AP5" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1379310344827589</v>
-      </c>
-      <c r="AQ5" s="6">
+      <c r="AP5">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="2">
+        <f>SUM(C5:AP5)/29</f>
+        <v>5.2068965517241379</v>
+      </c>
+      <c r="AR5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1552,15 +1588,18 @@
       <c r="AO6">
         <v>5</v>
       </c>
-      <c r="AP6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0344827586206895</v>
-      </c>
-      <c r="AQ6" s="6">
-        <v>10</v>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f>SUM(C6:AP6)/29</f>
+        <v>3.103448275862069</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1684,18 +1723,21 @@
       <c r="AO7">
         <v>5</v>
       </c>
-      <c r="AP7" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8620689655172411</v>
-      </c>
-      <c r="AQ7" s="6">
-        <v>3</v>
-      </c>
-      <c r="AR7" s="10" t="s">
+      <c r="AP7">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f>SUM(C7:AP7)/29</f>
+        <v>5</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1819,15 +1861,18 @@
       <c r="AO8">
         <v>5</v>
       </c>
-      <c r="AP8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6896551724137931</v>
-      </c>
-      <c r="AQ8" s="6">
-        <v>8</v>
+      <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="2">
+        <f>SUM(C8:AP8)/29</f>
+        <v>3.7586206896551726</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1951,15 +1996,18 @@
       <c r="AO9">
         <v>5</v>
       </c>
-      <c r="AP9" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3103448275862073</v>
-      </c>
-      <c r="AQ9" s="6">
-        <v>6</v>
+      <c r="AP9">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f>SUM(C9:AP9)/29</f>
+        <v>4.4482758620689653</v>
+      </c>
+      <c r="AR9" s="6">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2083,15 +2131,18 @@
       <c r="AO10">
         <v>5</v>
       </c>
-      <c r="AP10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2413793103448274</v>
-      </c>
-      <c r="AQ10" s="6">
-        <v>7</v>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f>SUM(C10:AP10)/29</f>
+        <v>4.3448275862068968</v>
+      </c>
+      <c r="AR10" s="6">
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2215,18 +2266,21 @@
       <c r="AO11">
         <v>5</v>
       </c>
-      <c r="AP11" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3103448275862073</v>
-      </c>
-      <c r="AQ11" s="6">
-        <v>6</v>
-      </c>
-      <c r="AR11" s="10" t="s">
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f>SUM(C11:AP11)/29</f>
+        <v>4.4137931034482758</v>
+      </c>
+      <c r="AR11" s="6">
+        <v>5</v>
+      </c>
+      <c r="AS11" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2350,172 +2404,182 @@
       <c r="AO12">
         <v>3</v>
       </c>
-      <c r="AP12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5172413793103448</v>
-      </c>
-      <c r="AQ12" s="6">
+      <c r="AP12">
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="2">
+        <f>SUM(C12:AP12)/29</f>
+        <v>3.5862068965517242</v>
+      </c>
+      <c r="AR12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AR13" s="5"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:AM14" si="0">C14+1</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:44">
-      <c r="AQ13" s="5"/>
-    </row>
-    <row r="14" spans="1:44">
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:AM14" si="1">C14+1</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
       <c r="L14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="Z14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AA14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="AC14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="AD14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AE14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="AF14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AG14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AI14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="AJ14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="AK14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="AL14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="AM14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5">
+      <c r="AN14" s="5">
         <f>AM14+1</f>
         <v>38</v>
       </c>
-      <c r="AP14" s="5"/>
+      <c r="AO14" s="5">
+        <f>AN14+1</f>
+        <v>39</v>
+      </c>
+      <c r="AP14" s="5">
+        <f>AO14+1</f>
+        <v>40</v>
+      </c>
       <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
